--- a/数据整理/stocks/港股/00853-微创医疗.xlsx
+++ b/数据整理/stocks/港股/00853-微创医疗.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010671</t>
+          <t>900003</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>景顺长城大中华混合(QDII)美元</t>
+          <t>中信证券臻选价值成长混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>92.90</t>
+          <t>66.27</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6.18</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>4</v>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5116</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>262001</t>
+          <t>900079</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>景顺长城大中华混合(QDII)</t>
+          <t>中信证券臻选价值成长混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>92.90</t>
+          <t>21.54</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6.18</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>4</v>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8164</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>860016</t>
+          <t>008284</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>光大阳光启明星创新驱动主题混合A</t>
+          <t>易方达全球医药行业混合（QDII）人民币</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>91.00</t>
+          <t>12.37</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6395</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>860052</t>
+          <t>008285</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>光大阳光启明星创新驱动主题混合B</t>
+          <t>易方达全球医药行业混合（QDII）美元</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>91.00</t>
+          <t>12.37</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6395</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>860053</t>
+          <t>010671</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>光大阳光启明星创新驱动主题混合C</t>
+          <t>景顺长城大中华混合(QDII)美元</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>91.00</t>
+          <t>5.69</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3516</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>900003</t>
+          <t>262001</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中信证券臻选价值成长混合A</t>
+          <t>景顺长城大中华混合(QDII)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>90.52</t>
+          <t>5.69</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.79</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>5</v>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3516</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>900079</t>
+          <t>860053</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中信证券臻选价值成长混合C</t>
+          <t>光大阳光启明星创新驱动主题混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>90.52</t>
+          <t>4.04</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.79</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>5</v>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1220</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>002214</t>
+          <t>860016</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中海沪港深价值优选灵活配置混合</t>
+          <t>光大阳光启明星创新驱动主题混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>89.74</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>6.57</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>2</v>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>005646</t>
+          <t>860052</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中海沪港深多策略灵活配置混合</t>
+          <t>光大阳光启明星创新驱动主题混合B</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>86.18</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>5.79</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>4</v>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>008284</t>
+          <t>002214</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>易方达全球医药行业混合（QDII）人民币</t>
+          <t>中海沪港深价值优选灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>90.47</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>5.17</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>10</v>
+          <t>89.74</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -772,26 +882,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>008285</t>
+          <t>005646</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>易方达全球医药行业混合（QDII）美元</t>
+          <t>中海沪港深多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>90.47</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>5.17</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>10</v>
+          <t>86.18</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -805,7 +925,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -826,15 +946,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -846,26 +976,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002214</t>
+          <t>010387</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中海沪港深价值优选灵活配置混合</t>
+          <t>易方达医药生物股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>81.24</t>
+          <t>37.90</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
+          <t>69.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4705</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005646</t>
+          <t>262001</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中海沪港深多策略灵活配置混合</t>
+          <t>景顺长城大中华混合(QDII)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>80.75</t>
+          <t>18.62</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>5</v>
+          <t>85.28</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9887</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -902,25 +1052,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>262001</t>
+          <t>010671</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>景顺长城大中华混合(QDII)</t>
+          <t>景顺长城大中华混合(QDII)美元</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>18.62</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>85.28</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>5.31</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9887</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>3</v>
       </c>
     </row>
@@ -930,26 +1090,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010387</t>
+          <t>008284</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>易方达医药生物股票A</t>
+          <t>易方达全球医药行业混合（QDII）人民币</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>69.26</t>
+          <t>12.01</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6690</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010388</t>
+          <t>008285</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>易方达医药生物股票C</t>
+          <t>易方达全球医药行业混合（QDII）美元</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>69.26</t>
+          <t>12.01</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>8</v>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6690</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010671</t>
+          <t>860018</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>景顺长城大中华混合(QDII)美元</t>
+          <t>光大阳光智造混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>85.28</t>
+          <t>8.39</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5.31</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>3</v>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4950</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>580008</t>
+          <t>860038</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>东吴新产业精选股票A</t>
+          <t>光大阳光智造混合B</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>87.47</t>
+          <t>6.99</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>9.89</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4124</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>008284</t>
+          <t>580008</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>易方达全球医药行业混合（QDII）人民币</t>
+          <t>东吴新产业精选股票A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>93.46</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5.57</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>6</v>
+          <t>87.47</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3521</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>008285</t>
+          <t>860007</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>易方达全球医药行业混合（QDII）美元</t>
+          <t>光大阳光价值30个月持有期混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>93.46</t>
+          <t>4.15</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>5.57</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>6</v>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2258</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>860006</t>
+          <t>860027</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>光大阳光优选一年持有混合A</t>
+          <t>光大阳光价值30个月持有期混合B</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>88.04</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.84</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>9</v>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1697</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>860055</t>
+          <t>005646</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>光大阳光优选一年持有混合B</t>
+          <t>中海沪港深多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>88.04</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.84</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>9</v>
+          <t>80.75</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1650</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>860056</t>
+          <t>010388</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>光大阳光优选一年持有混合C</t>
+          <t>易方达医药生物股票C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>88.04</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3.84</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>9</v>
+          <t>69.26</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1397</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>860007</t>
+          <t>860006</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>光大阳光价值30个月持有期混合A</t>
+          <t>光大阳光优选一年持有混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>91.27</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>5.44</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>3</v>
+          <t>88.04</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0680</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>860027</t>
+          <t>860039</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>光大阳光价值30个月持有期混合B</t>
+          <t>光大阳光智造混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>91.27</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>5.44</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>3</v>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0419</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>860018</t>
+          <t>002214</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>光大阳光智造混合A</t>
+          <t>中海沪港深价值优选灵活配置混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>91.54</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>5.90</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>2</v>
+          <t>81.24</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -1266,26 +1546,30 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>860038</t>
+          <t>860055</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>光大阳光智造混合B</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>91.54</t>
-        </is>
-      </c>
+          <t>光大阳光优选一年持有混合B</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>5.90</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>2</v>
+          <t>88.04</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="18">
@@ -1294,26 +1578,30 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>860039</t>
+          <t>860056</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>光大阳光智造混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>91.54</t>
-        </is>
-      </c>
+          <t>光大阳光优选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>5.90</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>2</v>
+          <t>88.04</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/00853-微创医疗.xlsx
+++ b/数据整理/stocks/港股/00853-微创医疗.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1554,7 +1555,6 @@
           <t>光大阳光优选一年持有混合B</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
           <t>88.04</t>
@@ -1586,7 +1586,6 @@
           <t>光大阳光优选一年持有混合C</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
           <t>88.04</t>
@@ -1602,6 +1601,1648 @@
       </c>
       <c r="H18" t="n">
         <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010377</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发价值核心混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>68.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>75.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.3641</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010027</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城核心中景一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>77.56</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.9007</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010387</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达医药生物股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>30.82</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.4625</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>900003</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信证券臻选价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>64.46</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.9209</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001764</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发沪港深新机遇股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>24.41</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.7038</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008284</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达全球医药行业混合（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>18.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0486</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008285</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达全球医药行业混合（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>18.11</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0486</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010671</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>18.71</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9898</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>262001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>18.71</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9898</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>862001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合型集合资产管理计划（QDII）A 人民币</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.70</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7712</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>862011</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合型集合资产管理计划（QDII）A 美元</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.70</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7712</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>862012</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合型集合资产管理计划（QDII）C 人民币</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.70</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7712</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009119</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发品质回报混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>15.55</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7293</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>860018</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>光大阳光智造混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6958</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>900079</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中信证券臻选价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>21.22</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6324</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010378</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发价值核心混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>10.46</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>75.63</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5167</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>860007</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>光大阳光价值30个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3447</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006671</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发消费升级股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3112</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010388</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>易方达医药生物股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3020</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>580008</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>东吴新产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>9.56</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2428</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006136</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发估值优势混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2419</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>860009</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>光大阳光稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>23.21</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>29.98</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2042</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005646</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中海沪港深多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>81.69</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2038</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>860058</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>光大阳光稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>15.37</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>29.98</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1353</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007718</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1350</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009414</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中银大健康股票A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1131</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>860006</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>光大阳光优选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0988</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009120</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发品质回报混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0478</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002214</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中海沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>81.45</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>513060</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>博时恒生医疗保健ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001518</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>万家瑞兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>22.81</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>501303</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011430</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>广发估值优势混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010321</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中银大健康股票C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010500</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>004996</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>160922</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>860055</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>光大阳光优选一年持有混合B</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>860056</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>光大阳光优选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>860027</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>光大阳光价值30个月持有期混合B</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>860038</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>光大阳光智造混合B</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>860039</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>光大阳光智造混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/00853-微创医疗.xlsx
+++ b/数据整理/stocks/港股/00853-微创医疗.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3248,4 +3249,1310 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010377</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发价值核心混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>52.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1198</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010387</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达医药生物股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>27.43</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.16</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5553</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001764</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发沪港深新机遇股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0755</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010671</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.91</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7456</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>262001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.91</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7456</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008284</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达全球医药行业混合（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.18</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6618</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008285</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达全球医药行业混合（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>16.18</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6618</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>862001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合型集合资产管理计划（QDII）A 人民币</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4618</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>862011</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合型集合资产管理计划（QDII）A 美元</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4618</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>862012</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合型集合资产管理计划（QDII）C 人民币</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4618</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009119</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发品质回报混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.55</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4600</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>860018</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>光大阳光智造混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4061</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>860038</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>光大阳光智造混合B</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3354</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010378</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发价值核心混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.25</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3232</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010388</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达医药生物股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.16</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2432</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>860007</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>光大阳光价值30个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2155</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006671</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发消费升级股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1965</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>580008</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>东吴新产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.72</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1838</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>860027</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>光大阳光价值30个月持有期混合B</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1659</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006136</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发估值优势混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.99</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1527</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011583</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>大成港股精选混合型证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>70.13</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1024</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>513700</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通医药卫生综合交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0935</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>513060</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博时恒生医疗保健ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>99.55</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0921</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009017</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>银华港股通精选股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0505</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>860008</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>光大阳光生活 18 个月持有期混合型集合资产管理计划A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012358</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>汇丰晋信医疗先锋混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>24.35</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009120</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发品质回报混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>860039</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>光大阳光智造混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011584</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>大成港股精选混合型证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>70.13</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011430</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>广发估值优势混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>86.99</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>012359</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>汇丰晋信医疗先锋混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>24.35</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>860060</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>光大阳光生活 18 个月持有期混合型集合资产管理计划B</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>860061</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>光大阳光生活 18 个月持有期混合型集合资产管理计划C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00853-微创医疗.xlsx
+++ b/数据整理/stocks/港股/00853-微创医疗.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4555,4 +4556,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>33</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12.13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>42</v>
+      </c>
+      <c r="D3" t="n">
+        <v>23.82</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>17</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.89</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00853-微创医疗.xlsx
+++ b/数据整理/stocks/港股/00853-微创医疗.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4564,7 +4565,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4575,17 +4576,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4595,14 +4616,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>33</v>
-      </c>
-      <c r="D2" t="n">
-        <v>12.13</v>
+          <t>010671</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>75.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6077</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -4611,14 +4654,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>42</v>
-      </c>
-      <c r="D3" t="n">
-        <v>23.82</v>
+          <t>262001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>75.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6077</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -4627,14 +4692,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>17</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6.89</v>
+          <t>012358</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇丰晋信医疗先锋混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.78</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2957</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -4643,13 +4730,455 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>860018</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>光大阳光智造混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2693</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>860038</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>光大阳光智造混合B</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2206</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>860007</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>光大阳光价值30个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1393</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>580008</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东吴新产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1231</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>860027</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>光大阳光价值30个月持有期混合B</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1074</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>513060</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时恒生医疗保健ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.19</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0742</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159892</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏恒生香港上市生物科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.57</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0619</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>860039</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>光大阳光智造混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012359</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇丰晋信医疗先锋混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.78</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>33</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12.13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>42</v>
+      </c>
+      <c r="D4" t="n">
+        <v>23.82</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>17</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.89</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>11</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>5.52</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00853-微创医疗.xlsx
+++ b/数据整理/stocks/港股/00853-微创医疗.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5077,7 +5078,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5088,17 +5089,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5108,14 +5129,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.54</v>
+          <t>501092</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞思三年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>64.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3908</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -5124,14 +5167,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>33</v>
-      </c>
-      <c r="D3" t="n">
-        <v>12.13</v>
+          <t>010671</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.35</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5144</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -5140,14 +5205,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>42</v>
-      </c>
-      <c r="D4" t="n">
-        <v>23.82</v>
+          <t>262001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.35</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.59</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5144</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -5156,14 +5243,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>17</v>
-      </c>
-      <c r="D5" t="n">
-        <v>6.89</v>
+          <t>862001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合型集合资产管理计划（QDII）A 人民币</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2006</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -5172,13 +5281,661 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>862011</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合型集合资产管理计划（QDII）A 美元</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2006</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>862012</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合型集合资产管理计划（QDII）C 人民币</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2006</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>860018</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>光大阳光智造混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1718</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>860038</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>光大阳光智造混合B</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1405</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005646</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中海沪港深多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.15</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1312</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>860007</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>光大阳光价值30个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.90</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1010</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>580008</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东吴新产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0898</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012358</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇丰晋信医疗先锋混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0842</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>860027</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>光大阳光价值30个月持有期混合B</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.90</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0785</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>860008</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>光大阳光生活 18 个月持有期混合型集合资产管理计划A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>860039</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>光大阳光智造混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>860060</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>光大阳光生活 18 个月持有期混合型集合资产管理计划B</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012359</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇丰晋信医疗先锋混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>860061</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>光大阳光生活 18 个月持有期混合型集合资产管理计划C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>18</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.86</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>33</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12.13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>42</v>
+      </c>
+      <c r="D5" t="n">
+        <v>23.82</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>17</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6.89</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>11</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>5.52</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00853-微创医疗.xlsx
+++ b/数据整理/stocks/港股/00853-微创医疗.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5818,7 +5819,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5829,17 +5830,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5849,14 +5870,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>18</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.86</v>
+          <t>501092</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞思三年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>60.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7072</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -5865,14 +5908,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.54</v>
+          <t>001764</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发沪港深新机遇股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.94</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9131</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -5881,14 +5946,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>33</v>
-      </c>
-      <c r="D4" t="n">
-        <v>12.13</v>
+          <t>900003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中信证券臻选价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>36.81</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8687</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -5897,14 +5984,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>42</v>
-      </c>
-      <c r="D5" t="n">
-        <v>23.82</v>
+          <t>010671</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.95</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7825</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -5913,14 +6022,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>17</v>
-      </c>
-      <c r="D6" t="n">
-        <v>6.89</v>
+          <t>262001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.95</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7825</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -5929,13 +6060,905 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>006595</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发港股通优质增长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5588</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009119</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发品质回报混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4266</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013392</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发港股通优质增长混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2858</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>862012</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合型集合资产管理计划（QDII）C 人民币</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2718</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>862001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合型集合资产管理计划（QDII）A 人民币</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2718</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>862011</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合型集合资产管理计划（QDII）A 美元</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2718</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>900079</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中信证券臻选价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.60</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2502</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>860018</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>光大阳光智造混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.94</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2237</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006671</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发消费升级股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2131</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>860038</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>光大阳光智造混合B</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.94</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1945</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006136</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发估值优势混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1410</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>860007</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>光大阳光价值30个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.79</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1382</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005646</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中海沪港深多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.57</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1088</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>860027</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>光大阳光价值30个月持有期混合B</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.79</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1071</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>580008</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>东吴新产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0954</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011470</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>东吴新产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0954</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009120</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发品质回报混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002214</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中海沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>860039</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>光大阳光智造混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>84.94</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011430</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发估值优势混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>25</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.779999999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>18</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.86</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>33</v>
+      </c>
+      <c r="D5" t="n">
+        <v>12.13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>42</v>
+      </c>
+      <c r="D6" t="n">
+        <v>23.82</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>17</v>
+      </c>
+      <c r="D7" t="n">
+        <v>6.89</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>11</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>5.52</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00853-微创医疗.xlsx
+++ b/数据整理/stocks/港股/00853-微创医疗.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>8.779999999999999</v>
+        <v>2.59</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D3" t="n">
-        <v>3.86</v>
+        <v>8.779999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D4" t="n">
-        <v>2.54</v>
+        <v>3.86</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>12.13</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D6" t="n">
-        <v>23.82</v>
+        <v>12.13</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="D7" t="n">
-        <v>6.89</v>
+        <v>23.82</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>17</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6.89</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>11</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>5.52</v>
       </c>
     </row>
@@ -600,6 +617,480 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501092</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞思三年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>51.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0750</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001764</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发沪港深新机遇股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5019</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009119</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发品质回报混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2488</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>862001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合（QDII）A 人民币</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1591</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>862011</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合（QDII）A 美元</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1591</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>862012</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合（QDII）C 人民币</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1591</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006671</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发消费升级股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1170</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005646</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中海沪港深多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0660</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>860027</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>光大阳光价值30个月持有期混合B</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0650</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009120</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发品质回报混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>860007</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>光大阳光价值30个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1605,7 +2096,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2345,7 +2836,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2857,7 +3348,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4163,7 +4654,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5805,7 +6296,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6493,7 +6984,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/00853-微创医疗.xlsx
+++ b/数据整理/stocks/港股/00853-微创医疗.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>2.59</v>
+        <v>8.59</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D3" t="n">
-        <v>8.779999999999999</v>
+        <v>2.59</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>3.86</v>
+        <v>8.779999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D5" t="n">
-        <v>2.54</v>
+        <v>3.86</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>12.13</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D7" t="n">
-        <v>23.82</v>
+        <v>12.13</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="D8" t="n">
-        <v>6.89</v>
+        <v>23.82</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>17</v>
+      </c>
+      <c r="D9" t="n">
+        <v>6.89</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>11</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>5.52</v>
       </c>
     </row>
@@ -616,7 +633,1791 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>900003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中信证券臻选价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>66.27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5116</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>900079</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信证券臻选价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.54</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8164</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008284</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达全球医药行业混合（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.37</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6395</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008285</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达全球医药行业混合（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.37</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6395</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010671</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3516</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>262001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3516</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>860053</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1220</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>860016</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>860052</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合B</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002214</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中海沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.74</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005646</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中海沪港深多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.18</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501092</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银瑞思</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>60.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6134</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010377</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发价值核心混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3172</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001764</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发沪港深新机遇股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.55</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8848</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010671</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合（QDII）美元A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.44</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.89</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5685</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>262001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合（QDII）人民币A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.42</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.89</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5676</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006595</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发港股通优质增长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5582</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013392</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发港股通优质增长混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5191</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012227</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城港股通全球竞争力混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.21</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5040</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009119</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发品质回报混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3715</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011908</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发沪港深价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3197</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010378</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发价值核心混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2365</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>862001</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合（QDII）A 人民币</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1930</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>862011</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合（QDII）A 美元</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1930</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>862012</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合（QDII）C 人民币</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1930</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006136</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发估值优势混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0976</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011909</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发沪港深价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0876</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012228</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>景顺长城港股通全球竞争力混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.21</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0772</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>860027</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>光大阳光价值30个月持有期混合B</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0546</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005646</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中海沪港深多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>105.93</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0527</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011917</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>山西证券品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.49</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0523</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009120</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发品质回报混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014146</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>景顺长城港股通数字经济主题混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>860007</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>光大阳光价值30个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008861</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.69</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>013920</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>兴华创新医疗6个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>014147</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>景顺长城港股通数字经济主题混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012315</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>创金合信港股通成长股票A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.18</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012316</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>创金合信港股通成长股票C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.18</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011918</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>山西证券品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>87.49</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010093</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>87.69</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011430</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>广发估值优势混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>013921</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>兴华创新医疗6个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>016988</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合（QDII）人民币C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>86.89</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1090,7 +2891,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2096,7 +3897,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2836,7 +4637,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3348,7 +5149,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4654,7 +6455,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6296,7 +8097,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6982,478 +8783,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H12"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>900003</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中信证券臻选价值成长混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>66.27</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90.52</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.79</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.5116</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>900079</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中信证券臻选价值成长混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>21.54</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90.52</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.79</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.8164</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>008284</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>易方达全球医药行业混合（QDII）人民币</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>12.37</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>90.47</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.17</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.6395</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>008285</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>易方达全球医药行业混合（QDII）美元</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>12.37</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>90.47</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.17</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.6395</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>010671</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>景顺长城大中华混合(QDII)美元</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>5.69</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.90</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>6.18</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.3516</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>262001</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>景顺长城大中华混合(QDII)</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>5.69</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.90</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>6.18</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.3516</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>860053</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>光大阳光启明星创新驱动主题混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>91.00</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1220</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>860016</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>光大阳光启明星创新驱动主题混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>91.00</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0254</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>860052</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>光大阳光启明星创新驱动主题混合B</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>91.00</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0254</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>002214</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>中海沪港深价值优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.37</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>89.74</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>6.57</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0243</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>005646</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>中海沪港深多策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>86.18</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>5.79</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0168</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>